--- a/기획/테이블/캐릭터/NPC/NPC 선택지 테이블.xlsx
+++ b/기획/테이블/캐릭터/NPC/NPC 선택지 테이블.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\addmin\Desktop\Unreal\UnrealProject\기획\테이블\캐릭터\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\addmin\Desktop\Unreal\UnrealProject\기획\테이블\캐릭터\NPC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40A51E9E-919D-4290-9B8E-9329A133ED14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{275DAE5F-9190-4D9E-BE28-114D5A935A5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6915" yWindow="3150" windowWidth="20220" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8025" yWindow="3945" windowWidth="20205" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>NextInteraction</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,6 +48,18 @@
   </si>
   <si>
     <t>구매</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알고 있다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모르겠다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nextInteractionType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -373,20 +385,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>2</v>
       </c>
@@ -394,10 +406,13 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -405,13 +420,16 @@
         <v>2000</v>
       </c>
       <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
+        <v>5000</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -421,11 +439,14 @@
       <c r="C3">
         <v>4</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -433,15 +454,47 @@
         <v>2000</v>
       </c>
       <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
+        <v>1500</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
+      </c>
+      <c r="B5">
+        <v>2001</v>
+      </c>
+      <c r="C5">
+        <v>507</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>2001</v>
+      </c>
+      <c r="C6">
+        <v>508</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
